--- a/Desarrollo/Planificación/STGRHPBI-HCPTA.xlsx
+++ b/Desarrollo/Planificación/STGRHPBI-HCPTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRISA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBCB30C-B770-4761-8C20-730CCA55BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6940A5-7D52-4E1A-B6DF-FA7EB4918E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,14 +29,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="26cHISt/XB1qwOSAwJLjOAdsprhUmZcjM9jqMDEDqyI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="q5gzhRuzPfsA01Eb9CtJiusLo66QhScJGp/lwdxF7rE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>PLAN DEL TRABAJO</t>
   </si>
@@ -145,15 +145,6 @@
   </si>
   <si>
     <t>STGRHPBI-DDDW.DOCX</t>
-  </si>
-  <si>
-    <t>Diseño de los Procesos de transformación y carga</t>
-  </si>
-  <si>
-    <t>Documento de Diseño de ETL</t>
-  </si>
-  <si>
-    <t>STGRHPBI-DDETL.DOCX</t>
   </si>
   <si>
     <t>Especificación de métricas</t>
@@ -808,16 +799,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1002"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="101.140625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -1107,7 +1098,7 @@
         <v>45750</v>
       </c>
       <c r="G17" s="22">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H17" s="25"/>
     </row>
@@ -1123,13 +1114,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="21">
-        <v>45750</v>
+        <v>45753</v>
       </c>
       <c r="F18" s="21">
-        <v>45753</v>
+        <v>45757</v>
       </c>
       <c r="G18" s="22">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H18" s="25"/>
     </row>
@@ -1151,20 +1142,22 @@
         <v>45757</v>
       </c>
       <c r="G19" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="B20" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="21">
         <v>45753</v>
@@ -1173,50 +1166,48 @@
         <v>45757</v>
       </c>
       <c r="G20" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="1:8" ht="18" customHeight="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="26">
+        <v>45742</v>
+      </c>
+      <c r="F21" s="26">
+        <v>45757</v>
+      </c>
+      <c r="G21" s="27">
+        <f>AVERAGE(G12:G20)</f>
+        <v>0.84444444444444455</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="21">
-        <v>45753</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="D22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="21">
         <v>45757</v>
       </c>
-      <c r="G21" s="22">
+      <c r="F22" s="21">
+        <v>45760</v>
+      </c>
+      <c r="G22" s="22">
         <v>0</v>
-      </c>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="26">
-        <v>45742</v>
-      </c>
-      <c r="F22" s="26">
-        <v>45757</v>
-      </c>
-      <c r="G22" s="27">
-        <f>AVERAGE(G12:G21)</f>
-        <v>0.73</v>
       </c>
       <c r="H22" s="25"/>
     </row>
@@ -1238,26 +1229,28 @@
         <v>45760</v>
       </c>
       <c r="G23" s="22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="B24" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E24" s="21">
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="F24" s="21">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="G24" s="22">
         <v>0</v>
@@ -1265,23 +1258,21 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="21">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="F25" s="21">
-        <v>45767</v>
+        <v>45771</v>
       </c>
       <c r="G25" s="22">
         <v>0</v>
@@ -1291,76 +1282,76 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="21">
-        <v>45767</v>
+        <v>45771</v>
       </c>
       <c r="F26" s="21">
-        <v>45771</v>
+        <v>45775</v>
       </c>
       <c r="G26" s="22">
         <v>0</v>
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="26">
+        <v>45757</v>
+      </c>
+      <c r="F27" s="26">
+        <v>45775</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="C28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="21">
-        <v>45771</v>
-      </c>
-      <c r="F27" s="21">
+      <c r="E28" s="21">
         <v>45775</v>
       </c>
-      <c r="G27" s="22">
+      <c r="F28" s="29">
+        <v>45781</v>
+      </c>
+      <c r="G28" s="22">
         <v>0</v>
       </c>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="36" t="s">
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="26">
-        <v>45757</v>
-      </c>
-      <c r="F28" s="26">
-        <v>45775</v>
-      </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>63</v>
-      </c>
       <c r="C29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="21">
@@ -1375,21 +1366,23 @@
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="21">
-        <v>45775</v>
+      <c r="D30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="29">
+        <v>45781</v>
       </c>
       <c r="F30" s="29">
-        <v>45781</v>
+        <v>45785</v>
       </c>
       <c r="G30" s="22">
         <v>0</v>
@@ -1397,67 +1390,49 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
-        <v>65</v>
-      </c>
+      <c r="A31" s="34"/>
       <c r="B31" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>68</v>
-      </c>
       <c r="E31" s="29">
-        <v>45781</v>
+        <v>45785</v>
       </c>
       <c r="F31" s="29">
-        <v>45785</v>
+        <v>45788</v>
       </c>
       <c r="G31" s="22">
         <v>0</v>
       </c>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="29">
-        <v>45785</v>
-      </c>
-      <c r="F32" s="29">
-        <v>45788</v>
-      </c>
-      <c r="G32" s="22">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="26">
+        <v>45775</v>
+      </c>
+      <c r="F32" s="26">
+        <v>45819</v>
+      </c>
+      <c r="G32" s="27">
         <v>0</v>
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="26">
-        <v>45775</v>
-      </c>
-      <c r="F33" s="26">
-        <v>45819</v>
-      </c>
-      <c r="G33" s="27">
-        <v>0</v>
-      </c>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
@@ -1485,12 +1460,12 @@
       <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="H39" s="25"/>
@@ -1547,7 +1522,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
@@ -1574,7 +1549,6 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="1"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="H53" s="1"/>
@@ -1582,7 +1556,6 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
-      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="B55" s="32"/>
@@ -2292,10 +2265,7 @@
       <c r="B231" s="32"/>
       <c r="C231" s="32"/>
     </row>
-    <row r="232" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B232" s="32"/>
-      <c r="C232" s="32"/>
-    </row>
+    <row r="232" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="233" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="234" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="235" spans="2:3" ht="15.75" customHeight="1"/>
@@ -3065,20 +3035,19 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Desarrollo/Planificación/STGRHPBI-HCPTA.xlsx
+++ b/Desarrollo/Planificación/STGRHPBI-HCPTA.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xt9wpHYj+kuqh4NeQUTpgG38NJcSqlV7YP9JKO80raQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vn7ptyKbTEttmVdKZcUNarm1Jo5YUCkdp3/jxanJxaQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>PLAN DEL TRABAJO</t>
   </si>
@@ -169,6 +169,15 @@
     <t>STGRHPBI-DDDPETL.DOCX</t>
   </si>
   <si>
+    <t>Crear Diccionario de Datos</t>
+  </si>
+  <si>
+    <t>Documento de Diccionario de Datos</t>
+  </si>
+  <si>
+    <t>STGRHPBI-DDD.XLSX</t>
+  </si>
+  <si>
     <t>Construcción</t>
   </si>
   <si>
@@ -181,21 +190,27 @@
     <t>Implementación de procesos ETL y DataWarehouse</t>
   </si>
   <si>
-    <t>Implementación de módulos y visualizaciones</t>
+    <t>Implementación de módulos y visualizaciones 1</t>
+  </si>
+  <si>
+    <t>Desarrollo del Frontend y Backend</t>
+  </si>
+  <si>
+    <t>Desarrollo del componente de IA (Cahtbot)</t>
   </si>
   <si>
     <t>Hito 2 - Fin del Sprint #2</t>
   </si>
   <si>
+    <t>Implementación de módulos y visualizaciones 2</t>
+  </si>
+  <si>
     <t>Pruebas</t>
   </si>
   <si>
     <t>Pruebas modulares</t>
   </si>
   <si>
-    <t>Pruebas globales</t>
-  </si>
-  <si>
     <t>Implementación</t>
   </si>
   <si>
@@ -208,7 +223,7 @@
     <t>STGRHPBI-DMU.DOCX</t>
   </si>
   <si>
-    <t>Entrega del sistema BI</t>
+    <t>Entrega del sistema BI + IA</t>
   </si>
   <si>
     <t>STGRHPBI-ES.PBIX</t>
@@ -315,7 +330,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +353,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7F2FC"/>
         <bgColor rgb="FFE7F2FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -505,15 +514,15 @@
     <xf borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="10" fillId="0" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="8" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,17 +538,11 @@
     <xf borderId="9" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="10" fillId="2" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1038,7 +1041,7 @@
       <c r="B17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -1050,17 +1053,17 @@
       <c r="F17" s="27">
         <v>45750.0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>0.98</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="30" t="s">
@@ -1072,10 +1075,10 @@
       <c r="F18" s="27">
         <v>45757.0</v>
       </c>
-      <c r="G18" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="H18" s="34"/>
+      <c r="G18" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="29"/>
@@ -1097,7 +1100,7 @@
       <c r="G19" s="28">
         <v>1.0</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" ht="18.0" customHeight="1">
       <c r="A20" s="35"/>
@@ -1112,9 +1115,9 @@
       </c>
       <c r="G20" s="38">
         <f>AVERAGE(G12:G19)</f>
-        <v>0.985</v>
-      </c>
-      <c r="H20" s="34"/>
+        <v>0.9975</v>
+      </c>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="23" t="s">
@@ -1138,7 +1141,7 @@
       <c r="G21" s="28">
         <v>1.0</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="29"/>
@@ -1160,20 +1163,18 @@
       <c r="G22" s="28">
         <v>1.0</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="C23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="D23" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="E23" s="27">
         <v>45760.0</v>
@@ -1182,80 +1183,85 @@
         <v>45767.0</v>
       </c>
       <c r="G23" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="34"/>
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="B24" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="27">
+        <v>45760.0</v>
+      </c>
+      <c r="F24" s="27">
         <v>45767.0</v>
       </c>
-      <c r="F24" s="27">
-        <v>45771.0</v>
-      </c>
-      <c r="G24" s="40">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="34"/>
+      <c r="G24" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="27">
+        <v>45767.0</v>
+      </c>
+      <c r="F25" s="27">
         <v>45771.0</v>
       </c>
-      <c r="F25" s="27">
+      <c r="G25" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="27">
+        <v>45771.0</v>
+      </c>
+      <c r="F26" s="27">
         <v>45775.0</v>
       </c>
-      <c r="G25" s="40">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" ht="20.25" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36" t="s">
+      <c r="G26" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>55</v>
-      </c>
-      <c r="E26" s="37">
-        <v>45757.0</v>
-      </c>
-      <c r="F26" s="37">
-        <v>45775.0</v>
-      </c>
-      <c r="G26" s="38">
-        <f>AVERAGE(G21:G25)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>21</v>
@@ -1263,938 +1269,996 @@
       <c r="E27" s="27">
         <v>45775.0</v>
       </c>
-      <c r="F27" s="42">
-        <v>45781.0</v>
-      </c>
-      <c r="G27" s="40">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="34"/>
+      <c r="F27" s="27">
+        <v>45791.0</v>
+      </c>
+      <c r="G27" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="29"/>
-      <c r="B28" s="41" t="s">
-        <v>58</v>
+      <c r="B28" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>21</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D28" s="30"/>
       <c r="E28" s="27">
         <v>45775.0</v>
       </c>
-      <c r="F28" s="42">
-        <v>45781.0</v>
-      </c>
-      <c r="G28" s="40">
+      <c r="F28" s="27">
+        <v>45791.0</v>
+      </c>
+      <c r="G28" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" ht="20.25" customHeight="1">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="37">
+        <v>45757.0</v>
+      </c>
+      <c r="F29" s="37">
+        <v>45791.0</v>
+      </c>
+      <c r="G29" s="38">
+        <f>AVERAGE(G21:G26)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="27">
+        <v>45791.0</v>
+      </c>
+      <c r="F30" s="40">
+        <v>45798.0</v>
+      </c>
+      <c r="G30" s="41">
         <v>0.0</v>
       </c>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="42">
-        <v>45781.0</v>
-      </c>
-      <c r="F29" s="42">
-        <v>45785.0</v>
-      </c>
-      <c r="G29" s="40">
+      <c r="B31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="27">
+        <v>45791.0</v>
+      </c>
+      <c r="F31" s="40">
+        <v>45798.0</v>
+      </c>
+      <c r="G31" s="41">
         <v>0.0</v>
       </c>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="42">
-        <v>45785.0</v>
-      </c>
-      <c r="F30" s="42">
-        <v>45788.0</v>
-      </c>
-      <c r="G30" s="40">
+      <c r="B32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="40">
+        <v>45798.0</v>
+      </c>
+      <c r="F32" s="40">
+        <v>45803.0</v>
+      </c>
+      <c r="G32" s="41">
         <v>0.0</v>
       </c>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="37">
-        <v>45775.0</v>
-      </c>
-      <c r="F31" s="37">
-        <v>45819.0</v>
-      </c>
-      <c r="G31" s="38">
-        <f>AVERAGE(G27:G30)</f>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="40">
+        <v>45803.0</v>
+      </c>
+      <c r="F33" s="40">
+        <v>45810.0</v>
+      </c>
+      <c r="G33" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="37">
+        <v>45791.0</v>
+      </c>
+      <c r="F34" s="37">
+        <v>45810.0</v>
+      </c>
+      <c r="G34" s="38">
+        <f>AVERAGE(G31:G33)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="H33" s="34"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="H34" s="34"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="H35" s="34"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="H36" s="34"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="H37" s="34"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="H38" s="34"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="H39" s="34"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="H40" s="34"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="H41" s="34"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="H42" s="34"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="H43" s="34"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="H44" s="34"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="H45" s="34"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="H46" s="34"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="H48" s="2"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="H48" s="33"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="H49" s="33"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="46"/>
-      <c r="C84" s="46"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="46"/>
-      <c r="C85" s="46"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="46"/>
-      <c r="C87" s="46"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="46"/>
-      <c r="C88" s="46"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="46"/>
-      <c r="C89" s="46"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="46"/>
-      <c r="C91" s="46"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="46"/>
-      <c r="C92" s="46"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="46"/>
-      <c r="C93" s="46"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="46"/>
-      <c r="C94" s="46"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="46"/>
-      <c r="C95" s="46"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="46"/>
-      <c r="C96" s="46"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="46"/>
-      <c r="C97" s="46"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="46"/>
-      <c r="C99" s="46"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="46"/>
-      <c r="C100" s="46"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="46"/>
-      <c r="C102" s="46"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="44"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="46"/>
-      <c r="C104" s="46"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="46"/>
-      <c r="C105" s="46"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="46"/>
-      <c r="C107" s="46"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="46"/>
-      <c r="C110" s="46"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="46"/>
-      <c r="C111" s="46"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="46"/>
-      <c r="C116" s="46"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="44"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="46"/>
-      <c r="C117" s="46"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="44"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="46"/>
-      <c r="C118" s="46"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="44"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="46"/>
-      <c r="C119" s="46"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="44"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="46"/>
-      <c r="C120" s="46"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="44"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="46"/>
-      <c r="C122" s="46"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="46"/>
-      <c r="C124" s="46"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="44"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="46"/>
-      <c r="C125" s="46"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="44"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="46"/>
-      <c r="C126" s="46"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="44"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="46"/>
-      <c r="C127" s="46"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="44"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="46"/>
-      <c r="C128" s="46"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="44"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="46"/>
-      <c r="C129" s="46"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="44"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="46"/>
-      <c r="C130" s="46"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="44"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="46"/>
-      <c r="C131" s="46"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="46"/>
-      <c r="C132" s="46"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="44"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="46"/>
-      <c r="C133" s="46"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="44"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="46"/>
-      <c r="C135" s="46"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="46"/>
-      <c r="C136" s="46"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="44"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="46"/>
-      <c r="C137" s="46"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="44"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="46"/>
-      <c r="C139" s="46"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="44"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="44"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="46"/>
-      <c r="C141" s="46"/>
+      <c r="B141" s="44"/>
+      <c r="C141" s="44"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="46"/>
-      <c r="C142" s="46"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="44"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="44"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="44"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="44"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="46"/>
-      <c r="C147" s="46"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="44"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="46"/>
-      <c r="C148" s="46"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="46"/>
-      <c r="C149" s="46"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="46"/>
-      <c r="C150" s="46"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="46"/>
-      <c r="C151" s="46"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="46"/>
-      <c r="C152" s="46"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="44"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="46"/>
-      <c r="C153" s="46"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="44"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="44"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="46"/>
-      <c r="C155" s="46"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="44"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="46"/>
-      <c r="C157" s="46"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="44"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="46"/>
-      <c r="C158" s="46"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="44"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="46"/>
-      <c r="C159" s="46"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="44"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="46"/>
-      <c r="C160" s="46"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="44"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="46"/>
-      <c r="C161" s="46"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="44"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="46"/>
-      <c r="C162" s="46"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="44"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="46"/>
-      <c r="C163" s="46"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="44"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="46"/>
-      <c r="C164" s="46"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="44"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="46"/>
-      <c r="C165" s="46"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="44"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="46"/>
-      <c r="C166" s="46"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="44"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="46"/>
-      <c r="C167" s="46"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="44"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="46"/>
-      <c r="C168" s="46"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="44"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="46"/>
-      <c r="C169" s="46"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="44"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="46"/>
-      <c r="C170" s="46"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="44"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="46"/>
-      <c r="C171" s="46"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="44"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="46"/>
-      <c r="C172" s="46"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="44"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="46"/>
-      <c r="C173" s="46"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="44"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="46"/>
-      <c r="C174" s="46"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="44"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="46"/>
-      <c r="C175" s="46"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="44"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="46"/>
-      <c r="C176" s="46"/>
+      <c r="B176" s="44"/>
+      <c r="C176" s="44"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="46"/>
-      <c r="C177" s="46"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="44"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="46"/>
-      <c r="C178" s="46"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="44"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="46"/>
-      <c r="C179" s="46"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="44"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="46"/>
-      <c r="C180" s="46"/>
+      <c r="B180" s="44"/>
+      <c r="C180" s="44"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="46"/>
-      <c r="C181" s="46"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="44"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="46"/>
-      <c r="C182" s="46"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="46"/>
-      <c r="C183" s="46"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="44"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="46"/>
-      <c r="C184" s="46"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="44"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="46"/>
-      <c r="C185" s="46"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="44"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="46"/>
-      <c r="C186" s="46"/>
+      <c r="B186" s="44"/>
+      <c r="C186" s="44"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="46"/>
-      <c r="C187" s="46"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="44"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="46"/>
-      <c r="C188" s="46"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="44"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="46"/>
-      <c r="C189" s="46"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="44"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="46"/>
-      <c r="C190" s="46"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="44"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="46"/>
-      <c r="C191" s="46"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="46"/>
-      <c r="C192" s="46"/>
+      <c r="B192" s="44"/>
+      <c r="C192" s="44"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="46"/>
-      <c r="C193" s="46"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="44"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="46"/>
-      <c r="C194" s="46"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="44"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="46"/>
-      <c r="C195" s="46"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="44"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="46"/>
-      <c r="C196" s="46"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="44"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="46"/>
-      <c r="C197" s="46"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="44"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="46"/>
-      <c r="C198" s="46"/>
+      <c r="B198" s="44"/>
+      <c r="C198" s="44"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="46"/>
-      <c r="C199" s="46"/>
+      <c r="B199" s="44"/>
+      <c r="C199" s="44"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="46"/>
-      <c r="C200" s="46"/>
+      <c r="B200" s="44"/>
+      <c r="C200" s="44"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="46"/>
-      <c r="C201" s="46"/>
+      <c r="B201" s="44"/>
+      <c r="C201" s="44"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="46"/>
-      <c r="C202" s="46"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="44"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="46"/>
-      <c r="C203" s="46"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="44"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="46"/>
-      <c r="C204" s="46"/>
+      <c r="B204" s="44"/>
+      <c r="C204" s="44"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="46"/>
-      <c r="C205" s="46"/>
+      <c r="B205" s="44"/>
+      <c r="C205" s="44"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="46"/>
-      <c r="C206" s="46"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="46"/>
-      <c r="C207" s="46"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="44"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="46"/>
-      <c r="C208" s="46"/>
+      <c r="B208" s="44"/>
+      <c r="C208" s="44"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="46"/>
-      <c r="C209" s="46"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="44"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="46"/>
-      <c r="C210" s="46"/>
+      <c r="B210" s="44"/>
+      <c r="C210" s="44"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="46"/>
-      <c r="C211" s="46"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="44"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="46"/>
-      <c r="C212" s="46"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="44"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="46"/>
-      <c r="C213" s="46"/>
+      <c r="B213" s="44"/>
+      <c r="C213" s="44"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="46"/>
-      <c r="C214" s="46"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="44"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="46"/>
-      <c r="C215" s="46"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="44"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="46"/>
-      <c r="C216" s="46"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="44"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="46"/>
-      <c r="C217" s="46"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="44"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="46"/>
-      <c r="C218" s="46"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="44"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="46"/>
-      <c r="C219" s="46"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="44"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="46"/>
-      <c r="C220" s="46"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="44"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="46"/>
-      <c r="C221" s="46"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="44"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="46"/>
-      <c r="C222" s="46"/>
+      <c r="B222" s="44"/>
+      <c r="C222" s="44"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="46"/>
-      <c r="C223" s="46"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="44"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="46"/>
-      <c r="C224" s="46"/>
+      <c r="B224" s="44"/>
+      <c r="C224" s="44"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="46"/>
-      <c r="C225" s="46"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="44"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="46"/>
-      <c r="C226" s="46"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="44"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="46"/>
-      <c r="C227" s="46"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="44"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="46"/>
-      <c r="C228" s="46"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="44"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="46"/>
-      <c r="C229" s="46"/>
+      <c r="B229" s="44"/>
+      <c r="C229" s="44"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="46"/>
-      <c r="C230" s="46"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
+      <c r="B230" s="44"/>
+      <c r="C230" s="44"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="B231" s="44"/>
+      <c r="C231" s="44"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="B232" s="44"/>
+      <c r="C232" s="44"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="B233" s="44"/>
+      <c r="C233" s="44"/>
+    </row>
     <row r="234" ht="15.75" customHeight="1"/>
     <row r="235" ht="15.75" customHeight="1"/>
     <row r="236" ht="15.75" customHeight="1"/>
@@ -2962,19 +3026,21 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B31:D31"/>
+  <mergeCells count="10">
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C7"/>
